--- a/Outcomes and objectives of your project.xlsx
+++ b/Outcomes and objectives of your project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\space\OneDrive\Desktop\todo app\step-by-step-Todo-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AAB9E1-16F8-4880-922D-27C23E1D194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36087D97-1E69-4923-9261-EF592E42EF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -530,34 +530,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
